--- a/Problem Solving Approaches.xlsx
+++ b/Problem Solving Approaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaidhumayun/Desktop/Development.nosync/Python/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6CCD5D-89B9-4D4E-B4AA-DB32052633F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568B9B3B-16B6-8647-B016-2EFBB5B6655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="29140" windowHeight="17440" xr2:uid="{BBA3A7B1-4C9F-7945-B58D-42304D426978}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>Problem</t>
   </si>
@@ -88,13 +88,7 @@
     <t>Find Cycle In A Directed Graph</t>
   </si>
   <si>
-    <t>To solve this problem, perform a DFS from each unseen node and keep track of the nodes currently in the recursion stack. If a node currently in the recursion stack is seen again, then that means there is a cycle. Keep fresh stack for each new recursion tree</t>
-  </si>
-  <si>
     <t>Detect Cycle In Directed Graph</t>
-  </si>
-  <si>
-    <t>Need to find out how to do the same for undirected graph</t>
   </si>
   <si>
     <t>Longest Path In Weighted DAG</t>
@@ -130,6 +124,115 @@
   </si>
   <si>
     <t>All of these problems require topological sort. Here is a video explaining topological sort</t>
+  </si>
+  <si>
+    <t>Critical Connections</t>
+  </si>
+  <si>
+    <t>Undirected Graph</t>
+  </si>
+  <si>
+    <t>Critical Connection</t>
+  </si>
+  <si>
+    <t>Solution link</t>
+  </si>
+  <si>
+    <t>Perform a DFS and mark the arrival time of each node along with its parent. The idea is to find all the bridges in the graph (a single edge connecting two cycles). Use a variation of Tarjan's algorithm to solve this.
+The idea here is to find if there is a child in the subtree of a parent node which has a backedge to an ancestor of the parent node. If such a backedge exists, then the edge connecting the parent node and its own parent is not a bridge</t>
+  </si>
+  <si>
+    <t>Explanation of Tarjan's algorithm</t>
+  </si>
+  <si>
+    <t>Tree Problems</t>
+  </si>
+  <si>
+    <t>Pre-Order, In-Order And Post-Order Traversals</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>There are two ways to do this - either recursively or iteratively.
+Recursively is straightforward, it requires changing one line of code in the template
+Iteratively use Omkar's template where the arrival, interim and departure is marked</t>
+  </si>
+  <si>
+    <t>Make sure to remember how to do the iterative traversals</t>
+  </si>
+  <si>
+    <t>Is It A BST?</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>Two ways to do this - either perform an inorder traversal of the BST which should result in a sorted array.
+Other way to do this is to use right &amp; left boundaries for each subtree where every node in the subtree has to fall b/w left and right boundaries.
+When going left, right boundary is the current roots value and opposite when going right</t>
+  </si>
+  <si>
+    <t>Special property of BST - inorder traversal of BST will result in a sorted array</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree Given pre-order and in-order traversals</t>
+  </si>
+  <si>
+    <t>The first node of the pre-order traversal is the root of the current subtree. Find index of this node in in-order traversal, then left values belong to left subtree and right values to right subtree
+Preorder for left subtree will be the number of values in the inorder list for each subtree</t>
+  </si>
+  <si>
+    <t>Construct BST from pre-order traversal</t>
+  </si>
+  <si>
+    <t>For a binary tree, its pre-order traversal will have the root of a subtree as the first element
+Construct binary tree requires both pre-order and in-order traversals</t>
+  </si>
+  <si>
+    <t>Sort pre-order traversal to get in-order traversal. Then build BST by using divide and conquer</t>
+  </si>
+  <si>
+    <t>Construct BST</t>
+  </si>
+  <si>
+    <t>Sorting pre-order = in-order
+post-order is reverse sorted list</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Find max of length of left subtree + right subtree and add 1 to the result</t>
+  </si>
+  <si>
+    <t>Diameter Of Binary Tree</t>
+  </si>
+  <si>
+    <t>To solve this problem, perform a DFS from each unseen node and keep track of the nodes currently in the recursion stack. If a node currently in the recursion stack is seen again, then that means there is a cycle. Keep fresh stack for each new recursion tree
+Another way to do this is to track arrival and departure time of each node. If a node has a neighbour with no departure time, then that indicates a cycle.</t>
+  </si>
+  <si>
+    <t>For undirected graph, maintain visited array and parent array. If a node has a neighbour which is seen and not a parent, a cycle is detected</t>
+  </si>
+  <si>
+    <t>In-Order Successor Of Tree/BST</t>
+  </si>
+  <si>
+    <t>Binary Tree / BST</t>
+  </si>
+  <si>
+    <t>General way for trees, find the left-most child in the right subtree of the node. If node has no right child, find the ancestor that is the in-order successor
+For BST, divide the tree into half at every value depending on comparison of node value &amp; required value. Keep track of predecessor</t>
+  </si>
+  <si>
+    <t>Inorder Successor in BST</t>
   </si>
 </sst>
 </file>
@@ -213,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,7 +354,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,15 +684,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D882F9-E12B-244F-B6D7-64A170453E03}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:I10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="47.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="95" style="3" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" style="4" customWidth="1"/>
@@ -607,7 +718,7 @@
     </row>
     <row r="2" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -660,93 +771,221 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="17" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="17" customFormat="1" ht="149" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" s="17" customFormat="1" ht="176" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" s="17" customFormat="1" ht="44" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" s="17" customFormat="1" ht="132" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="88" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="132" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="88" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="88" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G8:I10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{449AF18F-A2F3-F14A-B528-643E7615EDD9}"/>
@@ -759,6 +998,13 @@
     <hyperlink ref="D10" r:id="rId8" xr:uid="{63895694-C251-6F41-AA37-220142E16842}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{3B53B97D-7B45-6742-AE2C-AAE1C68B98B6}"/>
     <hyperlink ref="D11" r:id="rId10" xr:uid="{159C994A-BA17-D14B-BFAC-E6C5B554AD1B}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{1D07CF0A-1928-7742-878F-F93711E851B0}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{429A9F57-D8E0-6E45-8C15-E47283829843}"/>
+    <hyperlink ref="G13:I13" r:id="rId13" display="Explanation of Tarjan's algorithm" xr:uid="{ABC43275-00C2-1A46-8EB4-BE6441A22087}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{6DC80848-AB55-614F-A3E3-46C0A8C8D705}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{DDE6CC17-4F8F-B441-810E-748CA26F26B5}"/>
+    <hyperlink ref="D20" r:id="rId16" xr:uid="{6ABCAC3A-D7D9-7945-8B06-4B34517BECAA}"/>
+    <hyperlink ref="D21" r:id="rId17" xr:uid="{92A2F511-169A-7C41-ABD1-015DF646BD5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problem Solving Approaches.xlsx
+++ b/Problem Solving Approaches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaidhumayun/Desktop/Development.nosync/Python/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568B9B3B-16B6-8647-B016-2EFBB5B6655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE9A68C-EFDD-6B47-93A2-698AD9780821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="29140" windowHeight="17440" xr2:uid="{BBA3A7B1-4C9F-7945-B58D-42304D426978}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="17280" xr2:uid="{BBA3A7B1-4C9F-7945-B58D-42304D426978}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Problem</t>
   </si>
@@ -233,6 +233,24 @@
   </si>
   <si>
     <t>Inorder Successor in BST</t>
+  </si>
+  <si>
+    <t>Longest Univalue Path In Tree</t>
+  </si>
+  <si>
+    <t>Longest Univalue Path</t>
+  </si>
+  <si>
+    <t>When counting edges, at each point remember to calculate the maximum answer by doing left_path + right_path but when returning an answer to a parent node, return the max(left_path, right_path)</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Follow logic of longest univalue path or diameter of binary tree. At each node, find the maximum including left and right paths but when returning, return only one of those</t>
+  </si>
+  <si>
+    <t>For problems like this, remember that the local answer and the answer you return to the parent are two separate things</t>
   </si>
 </sst>
 </file>
@@ -316,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,6 +381,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -684,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D882F9-E12B-244F-B6D7-64A170453E03}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -778,7 +802,7 @@
       <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="24" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -801,7 +825,7 @@
       <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -980,12 +1004,45 @@
         <v>61</v>
       </c>
     </row>
+    <row r="22" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G8:I10"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="A15:E15"/>
+    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{449AF18F-A2F3-F14A-B528-643E7615EDD9}"/>
@@ -1005,6 +1062,8 @@
     <hyperlink ref="D19" r:id="rId15" xr:uid="{DDE6CC17-4F8F-B441-810E-748CA26F26B5}"/>
     <hyperlink ref="D20" r:id="rId16" xr:uid="{6ABCAC3A-D7D9-7945-8B06-4B34517BECAA}"/>
     <hyperlink ref="D21" r:id="rId17" xr:uid="{92A2F511-169A-7C41-ABD1-015DF646BD5A}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{7B14AAAC-BB09-0A42-91E6-269302FC7135}"/>
+    <hyperlink ref="D23" r:id="rId19" xr:uid="{03E7B930-4785-B94D-B55E-079A11D260B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problem Solving Approaches.xlsx
+++ b/Problem Solving Approaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaidhumayun/Desktop/Development.nosync/Python/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE9A68C-EFDD-6B47-93A2-698AD9780821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F079BEE6-F8B7-854B-B0A1-2EABF85304A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="17280" xr2:uid="{BBA3A7B1-4C9F-7945-B58D-42304D426978}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>Problem</t>
   </si>
@@ -251,6 +251,32 @@
   </si>
   <si>
     <t>For problems like this, remember that the local answer and the answer you return to the parent are two separate things</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>N Choose K</t>
+  </si>
+  <si>
+    <t>Multi-state DP</t>
+  </si>
+  <si>
+    <t>Think of the lazy manager approach for deriving recurrece relation. A lazy manager will make two choices - include or exclude current student. If current student excluded, then find k students among remaining n-1. If current student included, then find k-1 students among remaining n-1. C(n, k) = C(n-1, k) + C(n-1, k-1)</t>
+  </si>
+  <si>
+    <t>Think of the lazy manager approach</t>
+  </si>
+  <si>
+    <t>Coin Play</t>
+  </si>
+  <si>
+    <t>F(left, right) = max(value[i] + min(F(left + 2, right), F(left + 1, right - 1), value[j]+ min(F(left + 1, right - 1), F(left, right - 2)))
+GeeksForGeeks Page</t>
+  </si>
+  <si>
+    <t>Here, since there are two players, they both need to make optimal choices. Also, any choice one player makes minimises the result for the other player because it’s a 2-player zero-sum game.
+Make a nax choice for yourself and pick a choice for your opponent that will minimise the result for you</t>
   </si>
 </sst>
 </file>
@@ -334,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,6 +413,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -708,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D882F9-E12B-244F-B6D7-64A170453E03}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -924,7 +959,7 @@
       <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="26" t="s">
         <v>39</v>
       </c>
     </row>
@@ -938,7 +973,7 @@
       <c r="C17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="26" t="s">
         <v>43</v>
       </c>
     </row>
@@ -955,7 +990,7 @@
       <c r="D18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="26" t="s">
         <v>49</v>
       </c>
     </row>
@@ -972,7 +1007,7 @@
       <c r="D19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="26" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1036,13 +1071,62 @@
       </c>
       <c r="E23" s="23"/>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" ht="88" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G8:I10"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A25:E25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{449AF18F-A2F3-F14A-B528-643E7615EDD9}"/>
@@ -1064,6 +1148,9 @@
     <hyperlink ref="D21" r:id="rId17" xr:uid="{92A2F511-169A-7C41-ABD1-015DF646BD5A}"/>
     <hyperlink ref="D22" r:id="rId18" xr:uid="{7B14AAAC-BB09-0A42-91E6-269302FC7135}"/>
     <hyperlink ref="D23" r:id="rId19" xr:uid="{03E7B930-4785-B94D-B55E-079A11D260B5}"/>
+    <hyperlink ref="D26" r:id="rId20" xr:uid="{1B54A9ED-79DD-0840-BF51-41EE0AB1A347}"/>
+    <hyperlink ref="D27" r:id="rId21" xr:uid="{DB350800-AE0F-114F-AE55-F8AE0E8846D6}"/>
+    <hyperlink ref="E27" r:id="rId22" display="https://www.geeksforgeeks.org/optimal-strategy-for-a-game-dp-31/" xr:uid="{0C893359-780A-DB4B-8A95-ADB80886AB16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Problem Solving Approaches.xlsx
+++ b/Problem Solving Approaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaidhumayun/Desktop/Development.nosync/Python/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F079BEE6-F8B7-854B-B0A1-2EABF85304A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3B8332-31AA-054B-B7DF-5453B3AC2DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="17280" xr2:uid="{BBA3A7B1-4C9F-7945-B58D-42304D426978}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>Problem</t>
   </si>
@@ -277,6 +277,18 @@
   <si>
     <t>Here, since there are two players, they both need to make optimal choices. Also, any choice one player makes minimises the result for the other player because it’s a 2-player zero-sum game.
 Make a nax choice for yourself and pick a choice for your opponent that will minimise the result for you</t>
+  </si>
+  <si>
+    <t>Number Of Ways To Make Change Without Repeating</t>
+  </si>
+  <si>
+    <t>Think of the backtracking approach where you use (index, amount) as the parameters to a function. Make a binary choice at each index to either use the coin or not. Replace for loop with index parameter.</t>
+  </si>
+  <si>
+    <t>Number Of Ways To Make Change</t>
+  </si>
+  <si>
+    <t>Don't use for loop. Use (index, amount) as state variables like the backtracking approach</t>
   </si>
 </sst>
 </file>
@@ -360,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,6 +434,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -743,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D882F9-E12B-244F-B6D7-64A170453E03}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -921,7 +936,7 @@
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="28" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1117,6 +1132,23 @@
       </c>
       <c r="E27" s="7" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="88" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1151,6 +1183,7 @@
     <hyperlink ref="D26" r:id="rId20" xr:uid="{1B54A9ED-79DD-0840-BF51-41EE0AB1A347}"/>
     <hyperlink ref="D27" r:id="rId21" xr:uid="{DB350800-AE0F-114F-AE55-F8AE0E8846D6}"/>
     <hyperlink ref="E27" r:id="rId22" display="https://www.geeksforgeeks.org/optimal-strategy-for-a-game-dp-31/" xr:uid="{0C893359-780A-DB4B-8A95-ADB80886AB16}"/>
+    <hyperlink ref="D28" r:id="rId23" xr:uid="{80BE9D2A-AE69-F94A-9129-F50D3D679763}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
